--- a/ParkDace/bin/Debug/Campus_2_A_Park1.xlsx
+++ b/ParkDace/bin/Debug/Campus_2_A_Park1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marisa/Documents/ProjetoIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenfilipe/Desktop/Escola/3ºAno/1ºSemestre/IS/Projeto IS/ParkDace/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE6CB51-801A-BA47-A107-69843E59294F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6EF4D7-1F6C-9E49-AF0D-4E0CB693F86D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="6500" windowWidth="28040" windowHeight="17440" xr2:uid="{E9C09612-09AF-3E4B-99D2-8B8D15F60D70}"/>
+    <workbookView xWindow="10320" yWindow="13120" windowWidth="28040" windowHeight="17440" xr2:uid="{E9C09612-09AF-3E4B-99D2-8B8D15F60D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Campus_2_A_Park1" sheetId="1" r:id="rId1"/>
@@ -90,12 +90,6 @@
     <t>39.734909,-8.820708</t>
   </si>
   <si>
-    <t>39,734905,-8.820718</t>
-  </si>
-  <si>
-    <t>39,734928,-8.820685</t>
-  </si>
-  <si>
     <t>39.734946,-8.820649</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>Location (Geo):</t>
+  </si>
+  <si>
+    <t>39.734928,-8.820685</t>
+  </si>
+  <si>
+    <t>39.734905,-8.820718</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,7 +500,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,10 +535,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -570,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -586,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
